--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,300 +550,410 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>610002</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>信达澳银精华配置混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>77.15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>90.69</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票A</t>
+          <t>富国高新技术产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>76.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.51</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519704</t>
+          <t>007449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>兴全多维价值混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.62</t>
+          <t>21.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>519704</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>交银先进制造混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>501077</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501077</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>340006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>兴全全球视野股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0365</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>000991</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>工银瑞信战略转型主题股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>46.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>340006</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴全全球视野股票</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安物联网主题股票</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010570</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新沃创新领航混合A</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010571</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新沃创新领航混合C</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>007450</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>兴全多维价值混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>92.34</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001521</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国寿安保成长优选股票</t>
+          <t>富国新材料新能源混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>007685</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>华商电子行业量化股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>010570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>新沃创新领航混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>004756</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>国寿安保稳吉混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>001028</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>华安物联网主题股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>010571</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>新沃创新领航混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>7.23</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003016</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中金中证500指数增强A</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003578</t>
+          <t>003016</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中金中证500指数增强C</t>
+          <t>中金中证500指数增强A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007685</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华商电子行业量化股票</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1696,15 +2126,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>61.40</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008083</t>
+          <t>011473</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合C</t>
+          <t>工银瑞信战略转型主题股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>003760</t>
+          <t>004757</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强A</t>
+          <t>国寿安保稳吉混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>003761</t>
+          <t>003578</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强C</t>
+          <t>中金中证500指数增强C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>004756</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合A</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004757</t>
+          <t>003760</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合C</t>
+          <t>国泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>7</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>008083</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>国寿安保研究精选混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>003761</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>国泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,2718 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8627</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8712</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5246,4 +5247,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1940</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6747,4 +6748,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6756,7 +6757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6767,17 +6768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6787,14 +6808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.87</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6803,14 +6846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.57</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6819,14 +6884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.17</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6835,13 +6922,1519 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9462</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5461</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8333,7 +8334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8344,17 +8345,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8364,14 +8385,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8380,14 +8423,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.87</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8396,14 +8461,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.57</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8412,14 +8499,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.17</v>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8428,13 +8537,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9074,7 +9075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9085,17 +9086,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9105,14 +9126,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.28</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>234.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9121,14 +9164,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9137,14 +9202,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.87</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9153,14 +9240,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.57</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9169,14 +9278,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.17</v>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -9185,13 +9316,713 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>23.11</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>24.28</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>18.87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>35.57</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>23.17</v>
+        <v>35.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.27</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>210.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3729,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5229,7 +5870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7943,7 +8584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9519,7 +10160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002138-顺络电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>14.96</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>23.11</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>24.28</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>18.87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>35.57</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>23.17</v>
+        <v>35.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,2110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>017462</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +3873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2054,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2794,7 +5427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4370,7 +7003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5870,7 +8503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8584,7 +11217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10158,516 +12791,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>125.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1128</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3206</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2515</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2261</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1360</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0916</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>